--- a/biology/Botanique/Berberis_koreana/Berberis_koreana.xlsx
+++ b/biology/Botanique/Berberis_koreana/Berberis_koreana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le berbéris de Corée, (Berberis koreana), est un arbuste épineux du genre Berberis, endémique de Corée (poussant principalement dans le nord de la péninsule)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le berbéris de Corée, (Berberis koreana), est un arbuste épineux du genre Berberis, endémique de Corée (poussant principalement dans le nord de la péninsule).
 C'est un buisson dense, mesurant jusqu'à 2m. Le feuillage caduc à semi-persistant est vert l'été, mais se devient rouge en automne.
 Les fleurs, jaunes, apparaissent mai en grappes de 10 à 20.
 Les fruits sont rouges, ovales, et persistent l'hiver.
